--- a/2018_data/Eric_Ebron2018.xlsx
+++ b/2018_data/Eric_Ebron2018.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="AO1" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="2">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="6">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>62.94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>134.2</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="10">
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="12">
@@ -2538,7 +2538,7 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>48.36</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
